--- a/Art demand tech email list2.xlsx
+++ b/Art demand tech email list2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chartercom-my.sharepoint.com/personal/melissa_lutz_charter_com/Documents/Desktop/Roc Note/NWROC-34/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P2889532\OneDrive - Charter Communications\Desktop\Roc Note\NWROC-34\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="8_{B05D3242-2075-4A19-9192-18E02CED5621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B87C53C3-89E7-483F-A83B-A2F715A8809A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E173DCDD-6336-4948-B53D-1BAF5A745F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="5" xr2:uid="{73860BDB-49D2-43A2-8DFD-F9D590B09B92}"/>
+    <workbookView xWindow="2700" yWindow="1950" windowWidth="20655" windowHeight="13635" activeTab="4" xr2:uid="{73860BDB-49D2-43A2-8DFD-F9D590B09B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7291" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7291" uniqueCount="1324">
   <si>
     <t>BASNWY33614 - BASIN</t>
   </si>
@@ -4010,6 +4010,9 @@
   </si>
   <si>
     <t>daniel.weldon@charter.com</t>
+  </si>
+  <si>
+    <t>jeff.hart@charter.com</t>
   </si>
 </sst>
 </file>
@@ -16193,8 +16196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1E1080-2AC9-4C81-82EC-0348461F10F8}">
   <dimension ref="A1:M338"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="B339" sqref="B339"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22989,7 +22992,7 @@
         <v>205</v>
       </c>
       <c r="E162" t="s">
-        <v>1177</v>
+        <v>1323</v>
       </c>
       <c r="F162" t="s">
         <v>644</v>
@@ -23014,7 +23017,7 @@
       </c>
       <c r="M162" t="str">
         <f t="shared" si="2"/>
-        <v>"Jeffrey Hart": ["Jeffrey.Hart@charter.com;nikolos.goodman@charter.com;anthony.ramirez@charter.com;trentyn.roden@charter.com;"],</v>
+        <v>"Jeffrey Hart": ["jeff.hart@charter.com;nikolos.goodman@charter.com;anthony.ramirez@charter.com;trentyn.roden@charter.com;"],</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -30381,7 +30384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D6D971-1A4C-41CF-90F8-6F6583E6EEB5}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
